--- a/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-microbiology-category-cs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-microbiology-category-cs.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>細菌検査種別に関するコード</t>
+    <t>細菌検査カテゴリコードシステム</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-microbiology-category-cs.xlsx
+++ b/jpcore-r4/feature/swg2-add-microbiology/CodeSystem-jp-microbiology-category-cs.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>細菌検査カテゴリコードシステム</t>
+    <t>微生物学検査カテゴリコードシステム</t>
   </si>
   <si>
     <t>Purpose</t>
